--- a/biology/Botanique/Sapium_glandulosum/Sapium_glandulosum.xlsx
+++ b/biology/Botanique/Sapium_glandulosum/Sapium_glandulosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sapium glandulosum est une espèce de plantes à fleurs de la famille des Euphorbiaceae (famille du ricin). Il s'agit de l'espèce de Sapium la plus commune. C'est un arbre néotropical.
-Il est connu sous les noms de Gumtree[3] , Milktree[4]  (anglais), kurupika’y, pau-de-leite, pau-leiteiro, lechero, lechero de hoja graúda, mataojo, toropi, Leche de olivo, Olivo macho (espagnol)[5]. Au Venezuela, on l'appelle Caucho, Lechero, Lechero blanco, Lechero morado (Espagnol), Mukonyo (Panare)[6].
+Il est connu sous les noms de Gumtree , Milktree  (anglais), kurupika’y, pau-de-leite, pau-leiteiro, lechero, lechero de hoja graúda, mataojo, toropi, Leche de olivo, Olivo macho (espagnol). Au Venezuela, on l'appelle Caucho, Lechero, Lechero blanco, Lechero morado (Espagnol), Mukonyo (Panare).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sapium glandulosum est un arbuste ou un arbre robuste atteignant 20 m de haut. Les tiges charnues, sont creuses au milieu, et produisent un latex abondant lorsqu'elles sont blessées. Les feuilles sont simples, alternes avec un pétiole rougissant, longues d'environ 15 mm, et portent 2 glandes dans sa partie distale. Le limbe à marge dentée portant de nombreuses nervures secondaires. L'ovaire porte 3 stigmates distincts et le fruit contient 3 loges[6]. En Guyane, il fleurit de décembre à mars et fructifie de février à mai[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sapium glandulosum est un arbuste ou un arbre robuste atteignant 20 m de haut. Les tiges charnues, sont creuses au milieu, et produisent un latex abondant lorsqu'elles sont blessées. Les feuilles sont simples, alternes avec un pétiole rougissant, longues d'environ 15 mm, et portent 2 glandes dans sa partie distale. Le limbe à marge dentée portant de nombreuses nervures secondaires. L'ovaire porte 3 stigmates distincts et le fruit contient 3 loges. En Guyane, il fleurit de décembre à mars et fructifie de février à mai.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Sapium glandulosum dans la majorité des pays néotropicaux, depuis le Mexique, jusqu'à la plupart des pays d'Amérique du Sud (sauf le Chili), en passant par une grande partie des Antilles. Il est parfois aussi dans d'autres régions tropicales où il est cultivé pour la production de latex (ex : Malaisie)[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Sapium glandulosum dans la majorité des pays néotropicaux, depuis le Mexique, jusqu'à la plupart des pays d'Amérique du Sud (sauf le Chili), en passant par une grande partie des Antilles. Il est parfois aussi dans d'autres régions tropicales où il est cultivé pour la production de latex (ex : Malaisie).
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il pousse depuis le niveau de la mer jusqu'à 600 m d'altitude, dans une diversité d'habitats naturels : forêts ripicoles ou forêts marécageuses, souvent sur dans les zones inondables, les végétations secondaires, les haies et bosquets épargnés par les pâturages, les savanes marécageuses, les forêts sempervirentes ou semi-décidues, sur les afleurements rocheux granitiques, grèseux, sableux ou argileux[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pousse depuis le niveau de la mer jusqu'à 600 m d'altitude, dans une diversité d'habitats naturels : forêts ripicoles ou forêts marécageuses, souvent sur dans les zones inondables, les végétations secondaires, les haies et bosquets épargnés par les pâturages, les savanes marécageuses, les forêts sempervirentes ou semi-décidues, sur les afleurements rocheux granitiques, grèseux, sableux ou argileux.
 </t>
         </is>
       </c>
@@ -605,14 +623,16 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits de cet arbre sont comestibles[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits de cet arbre sont comestibles.
 Le bois peut être employé pour la sculpture comme chez les Guaraní, ou la fabrication de boîtes, et comme bois de chauffage notamment pour le charbon de bois. 
 Ornemental, il convient à l'aménagement paysager et au reboisement.
-Le latex donne un caoutchouc de haute qualité. Bien qu'il ait été cultivé expérimentalement dans différentes parties des tropiques, sa récolte est plus difficile que l'Hevea, et sa culture commerciale n'a jamais pris d'importance[6],[8],[9].
-Le latex toxique, irritant pour les yeux, a été utilisé comme poison de chasse pour les oiseaux et les poissonschez[10]. On a démontré les activités protéolytiques de ce latex[11].
-Selon « Systema de Materia Medica Vegetabilis Brasiliensis » (Martius 1843[12]), Sapium glandulosum était utilisé pour soigner la syphilis, l'éléphantiasis et les verrues[13].
+Le latex donne un caoutchouc de haute qualité. Bien qu'il ait été cultivé expérimentalement dans différentes parties des tropiques, sa récolte est plus difficile que l'Hevea, et sa culture commerciale n'a jamais pris d'importance.
+Le latex toxique, irritant pour les yeux, a été utilisé comme poison de chasse pour les oiseaux et les poissonschez. On a démontré les activités protéolytiques de ce latex.
+Selon « Systema de Materia Medica Vegetabilis Brasiliensis » (Martius 1843), Sapium glandulosum était utilisé pour soigner la syphilis, l'éléphantiasis et les verrues.
 </t>
         </is>
       </c>
@@ -641,9 +661,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet rapporte ceci, à propos de cet arbre, dans son « HISTOIRE DES PLANTES DE LA GUIANE FRANÇOISE »[14] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet rapporte ceci, à propos de cet arbre, dans son « HISTOIRE DES PLANTES DE LA GUIANE FRANÇOISE » : 
 « HIPPOMANE (biglanduloſa) foliis ovato-oblongis, baſi triglanduloſis. Lin. Spec. 1431. 
 Mancanilla lauri foliis oblongis. Plum. Gen. 50. Burm.Amer. p.164 t. 171. f. 2. 
 Sapium arboreum, foliis ellipticis, glabris ; petiolis biglandulis ; floribus ſpicatis. Brow. Jam. 338. 
